--- a/exp/exp1/exp1_0131.xlsx
+++ b/exp/exp1/exp1_0131.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="exp1_0131_1500" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
